--- a/cell_note_all.xlsx
+++ b/cell_note_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u234830_bcm_edu/Documents/Documents/GitHub/lsfm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{4978CD22-C84A-4D7F-942D-FCFD600DEC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CEBBB24-E1A7-4C63-9BCF-31C28937C62F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{4978CD22-C84A-4D7F-942D-FCFD600DEC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E4960FB-5C0A-4211-9335-659F20E44356}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{AF5B5755-5FE3-4633-B1B8-E972DF0D9E69}"/>
+    <workbookView xWindow="9705" yWindow="3150" windowWidth="25095" windowHeight="15435" xr2:uid="{AF5B5755-5FE3-4633-B1B8-E972DF0D9E69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>20210611_002</t>
   </si>
@@ -161,6 +161,66 @@
   </si>
   <si>
     <t>['onset', 'sustain', 'offset']</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>['onset', 'sustain', 'offset', 'inhibit']</t>
+  </si>
+  <si>
+    <t>[(2500,6000), (30000,35000), (41000,45000)]</t>
+  </si>
+  <si>
+    <t>[(1500,4000), (30000,35000), (40000,45000)]</t>
+  </si>
+  <si>
+    <t>[(2300,4000), (30000,35000), (40000,43000)]</t>
+  </si>
+  <si>
+    <t>[(2500,7500), (30000,35000), (40000,45000)]</t>
+  </si>
+  <si>
+    <t>[(2500,6000), (30000,35000), (40000,45000)]</t>
+  </si>
+  <si>
+    <t>[(5000,10000), (30000,35000), (40000,45000), (1250,3500)]</t>
+  </si>
+  <si>
+    <t>[(4500,10000), (30000,35000), (40000,43000)]</t>
+  </si>
+  <si>
+    <t>[(2500,10000), (30000,35000), (42000,47500)]</t>
+  </si>
+  <si>
+    <t>[(7500,12000), (30000,35000), (40000,45000), (1400,7500)]</t>
+  </si>
+  <si>
+    <t>[(1500,4000), (20000,25000), (27500,31000)]</t>
+  </si>
+  <si>
+    <t>[(1500,2500), (20000,25000), (27000,30000)]</t>
+  </si>
+  <si>
+    <t>[(2500,7500), (20000,25000), (27500,32500)]</t>
+  </si>
+  <si>
+    <t>[(2500,6000), (20000,25000), (28500,31000)]</t>
+  </si>
+  <si>
+    <t>[(2500,7500), (21000,25000), (28000,32500)]</t>
+  </si>
+  <si>
+    <t>[(2500,5000), (20000,25000), (28000,32500)]</t>
+  </si>
+  <si>
+    <t>[(2000,4000), (20000,24000), (27500,31000)]</t>
+  </si>
+  <si>
+    <t>[(1250,3500), (20000,24000), (27000,30000)]</t>
+  </si>
+  <si>
+    <t>[(1250,2700), (20000,24000), (27000,30000)]</t>
   </si>
 </sst>
 </file>
@@ -512,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB243CF-520C-449B-A1EF-32FD8EEC2AD7}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +585,11 @@
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -550,8 +611,11 @@
       <c r="G1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -570,8 +634,11 @@
       <c r="G2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -587,8 +654,14 @@
       <c r="F3">
         <v>24000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -607,8 +680,14 @@
       <c r="F4">
         <v>15213.390439999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -627,8 +706,14 @@
       <c r="F5">
         <v>6976.5553479999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -647,8 +732,14 @@
       <c r="F6">
         <v>6865.092987</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -667,8 +758,14 @@
       <c r="F7">
         <v>5827.7767309999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -687,8 +784,14 @@
       <c r="F8">
         <v>4914.4894489999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -707,8 +810,14 @@
       <c r="F9">
         <v>10940.05034</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -727,8 +836,14 @@
       <c r="F10">
         <v>13985.259910000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -747,8 +862,14 @@
       <c r="F11">
         <v>5864.7227359999997</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -767,8 +888,14 @@
       <c r="F12">
         <v>5864.7227359999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -787,8 +914,14 @@
       <c r="F13">
         <v>15594.02025</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -807,8 +940,14 @@
       <c r="F14">
         <v>15594.02025</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -827,8 +966,14 @@
       <c r="F15">
         <v>15594.02025</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -847,8 +992,14 @@
       <c r="F16">
         <v>16965.526519999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -867,8 +1018,14 @@
       <c r="F17">
         <v>8987.8227279999992</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -887,8 +1044,14 @@
       <c r="F18">
         <v>17515.579010000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -906,6 +1069,12 @@
       </c>
       <c r="F19">
         <v>17515.579010000001</v>
+      </c>
+      <c r="G19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/cell_note_all.xlsx
+++ b/cell_note_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcmedu-my.sharepoint.com/personal/u234830_bcm_edu/Documents/Documents/GitHub/lsfm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\lsfm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{4978CD22-C84A-4D7F-942D-FCFD600DEC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E4960FB-5C0A-4211-9335-659F20E44356}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940550BB-92A8-429C-AA9C-E4107C7FBDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="3150" windowWidth="25095" windowHeight="15435" xr2:uid="{AF5B5755-5FE3-4633-B1B8-E972DF0D9E69}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{AF5B5755-5FE3-4633-B1B8-E972DF0D9E69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
   <si>
     <t>20210611_002</t>
   </si>
@@ -221,18 +221,31 @@
   </si>
   <si>
     <t>[(1250,2700), (20000,24000), (27000,30000)]</t>
+  </si>
+  <si>
+    <t>best_lag_all</t>
+  </si>
+  <si>
+    <t>best_lag_bf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -256,11 +269,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -276,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,13 +588,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB243CF-520C-449B-A1EF-32FD8EEC2AD7}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -587,9 +603,10 @@
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -614,8 +631,14 @@
       <c r="H1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -637,8 +660,14 @@
       <c r="H2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>78</v>
+      </c>
+      <c r="J2" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -660,8 +689,14 @@
       <c r="H3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -686,8 +721,14 @@
       <c r="H4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <v>80</v>
+      </c>
+      <c r="J4" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -712,8 +753,14 @@
       <c r="H5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -738,8 +785,14 @@
       <c r="H6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -764,8 +817,14 @@
       <c r="H7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -790,8 +849,14 @@
       <c r="H8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -816,8 +881,14 @@
       <c r="H9" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -842,8 +913,14 @@
       <c r="H10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <v>12</v>
+      </c>
+      <c r="J10" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -868,8 +945,14 @@
       <c r="H11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -894,8 +977,14 @@
       <c r="H12" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -920,8 +1009,14 @@
       <c r="H13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <v>76</v>
+      </c>
+      <c r="J13" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -946,8 +1041,14 @@
       <c r="H14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <v>76</v>
+      </c>
+      <c r="J14" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -972,8 +1073,14 @@
       <c r="H15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>70</v>
+      </c>
+      <c r="J15" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -998,8 +1105,14 @@
       <c r="H16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <v>62</v>
+      </c>
+      <c r="J16" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1024,8 +1137,14 @@
       <c r="H17" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <v>58</v>
+      </c>
+      <c r="J17" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1050,8 +1169,14 @@
       <c r="H18" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1076,8 +1201,16 @@
       <c r="H19" t="s">
         <v>61</v>
       </c>
+      <c r="I19" s="1">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cell_note_all.xlsx
+++ b/cell_note_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\lsfm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McGinley3\Documents\GitHub\lsfm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940550BB-92A8-429C-AA9C-E4107C7FBDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE464DD-6840-4DE2-929B-18EBFF0A68DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{AF5B5755-5FE3-4633-B1B8-E972DF0D9E69}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="17370" xr2:uid="{AF5B5755-5FE3-4633-B1B8-E972DF0D9E69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>20210611_002</t>
   </si>
@@ -227,23 +227,83 @@
   </si>
   <si>
     <t>best_lag_bf</t>
+  </si>
+  <si>
+    <t>20220826_002</t>
+  </si>
+  <si>
+    <t>20220826_003</t>
+  </si>
+  <si>
+    <t>20220826_001</t>
+  </si>
+  <si>
+    <t>20220914_002</t>
+  </si>
+  <si>
+    <t>20220914_003</t>
+  </si>
+  <si>
+    <t>20220914_004</t>
+  </si>
+  <si>
+    <t>20220914_006</t>
+  </si>
+  <si>
+    <t>20220914_007</t>
+  </si>
+  <si>
+    <t>20220914_005</t>
+  </si>
+  <si>
+    <t>20220915_002</t>
+  </si>
+  <si>
+    <t>20220915_003</t>
+  </si>
+  <si>
+    <t>20220915_001</t>
+  </si>
+  <si>
+    <t>20221005_001</t>
+  </si>
+  <si>
+    <t>20221005_002</t>
+  </si>
+  <si>
+    <t>20221024_002</t>
+  </si>
+  <si>
+    <t>20221024_003</t>
+  </si>
+  <si>
+    <t>20221024_001</t>
+  </si>
+  <si>
+    <t>20221024_004</t>
+  </si>
+  <si>
+    <t>20221024_005</t>
+  </si>
+  <si>
+    <t>20221024_006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -276,7 +336,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -292,7 +352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -588,13 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DB243CF-520C-449B-A1EF-32FD8EEC2AD7}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
@@ -606,7 +666,7 @@
     <col min="9" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -638,7 +698,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +727,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -696,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -728,7 +788,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -760,7 +820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -792,7 +852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -824,7 +884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -856,7 +916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -888,7 +948,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -920,7 +980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -952,7 +1012,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -984,7 +1044,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1016,7 +1076,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1048,7 +1108,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1080,7 +1140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1144,7 +1204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1176,7 +1236,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1206,6 +1266,112 @@
       </c>
       <c r="J19" s="1">
         <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
